--- a/medicine/Enfance/Daniel_Marchildon/Daniel_Marchildon.xlsx
+++ b/medicine/Enfance/Daniel_Marchildon/Daniel_Marchildon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Marchildon est un romancier, nouvelliste, auteur pour la jeunesse, journaliste et scénariste franco-ontarien né à Penetanguishene en Ontario, le 10 novembre 1961.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Marchildon obtient un baccalauréat universitaire en traduction avec concentration en Lettres françaises à l’Université d'Ottawa (Ontario) en 1983. Depuis, il œuvre comme écrivain, rédacteur et traducteur pigiste dans sa région natale à environ 160 km au nord de Toronto.  
 Il a signé plus d’une vingtaine de publications, dont neuf romans pour jeunes et quatre romans pour public adulte, ainsi que des ouvrages historiques. Son œuvre compte aussi des scénarios pour la télévision et le cinéma, et également des nouvelles littéraires, des articles et des critiques parus, entre autres, dans le journal communautaire Le Goût de vivre de Lafontaine et les revues Virages, Imagine, Liaison et Clik.
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Littérature pour la jeunesse
 Otages de la nature, roman pour ados, Ottawa, Editions David, coll. 14/18, 2018.
@@ -593,7 +609,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2014 - Finaliste au prix Christine Dumitriu-van-Saanen pour Le sortilège de Louisbourg
 1988 - Prix Cécile-Rouleau, Le Bien précieux de l'île Beausoleil
